--- a/excel/Machinery_Part/Section4.xlsx
+++ b/excel/Machinery_Part/Section4.xlsx
@@ -1902,7 +1902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX30"/>
+  <dimension ref="A1:CX31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9099,6 +9099,519 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>The boiler shall consist of the doughnut shaped steam drum and water drum which are 
+connected by two rows of water tubes.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BW15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BY15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BZ15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CA15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CC15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CD15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CE15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CF15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CG15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CH15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CI15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CJ15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CK15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CL15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CM15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CN15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CO15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CP15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CQ15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CR15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CS15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CT15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CU15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CV15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CW15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CX15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>feed stop valve 
  1 － surface blow-off valve 
  1 － bottom blow-off valve 
@@ -9106,932 +9619,419 @@
  1 － boiler water sampling valve</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>(+)- &amp; (+)- &amp; (+)- &amp; (+)- &amp; (+). &amp; (-)－ &amp; (-)－ &amp; (-)－ &amp; (-)－</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>(+).</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>(+).</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>(+)- &amp; (+)- &amp; (+)- &amp; (+)- &amp; (+). &amp; (-)－ &amp; (-)－ &amp; (-)－ &amp; (-)－</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AS15" t="inlineStr">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
         <is>
           <t>(+)- &amp; (+)- &amp; (+)- &amp; (+)- &amp; (+). &amp; (-)－ &amp; (-)－ &amp; (-)－ &amp; (-)－</t>
         </is>
       </c>
-      <c r="AT15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AU15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AV15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AW15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AX15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AZ15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BA15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BB15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BC15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BD15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BE15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BG15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BI15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BJ15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BK15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BL15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BM15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BN15" t="inlineStr">
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BN16" t="inlineStr">
         <is>
           <t>(+)- &amp; (+)- &amp; (+)- &amp; (+)- &amp; (+). &amp; (-)－ &amp; (-)－ &amp; (-)－ &amp; (-)－</t>
         </is>
       </c>
-      <c r="BO15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BP15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BQ15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BR15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BS15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BT15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BU15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BV15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BW15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BX15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BY15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BZ15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CA15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CB15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CC15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CD15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CE15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CF15" t="inlineStr">
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BW16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BY16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BZ16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CA16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CC16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CD16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CE16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CF16" t="inlineStr">
         <is>
           <t>(+)2 &amp; (+)flame &amp; (+)eye</t>
-        </is>
-      </c>
-      <c r="CG15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CH15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CI15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CJ15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CK15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CL15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CM15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CN15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CO15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CP15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CQ15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CR15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CS15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CT15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CU15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CV15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CW15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CX15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>The boiler shall consist of the doughnut shaped steam drum and water drum which are 
-connected by two rows of water tubes.</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AS16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AT16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AU16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AV16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AW16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AX16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AZ16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BA16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BB16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BC16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BD16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BE16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BG16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BI16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BJ16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BK16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BL16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BM16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BN16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BO16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BP16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BQ16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BR16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BS16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BT16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BU16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BV16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BW16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BX16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BY16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BZ16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CA16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CB16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CC16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CD16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CE16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CF16" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="CG16" t="inlineStr">
@@ -10127,519 +10127,6 @@
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
-        <is>
-          <t>The exhaust gas section and oil burning section shall be completely separated from each 
-other.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AS17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AT17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AU17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AV17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AW17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AX17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AZ17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BB17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BC17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BD17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BE17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BG17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BI17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BJ17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BK17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BL17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BM17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BN17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BO17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BP17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BQ17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BR17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BS17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BT17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BU17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BV17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BW17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BX17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BY17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BZ17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CA17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CB17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CC17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CD17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CE17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CF17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CG17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CH17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CI17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CJ17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CK17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CL17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CM17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CN17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CO17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CP17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CQ17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CR17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CS17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CT17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CU17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CV17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CW17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CX17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
         <is>
           <t>1 - pressure gauge root valve 
  2 - sets of water gauge ( including water level controller ) 
@@ -10650,516 +10137,1030 @@
  Each 1 - main and aux.</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BD17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BV17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BW17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="BY17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BZ17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CA17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CB17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CC17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CD17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CE17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CF17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CG17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CH17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CI17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CJ17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CK17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CL17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CM17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CN17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CO17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CP17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CQ17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CR17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CS17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CT17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CU17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CV17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CW17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="CX17" t="inlineStr">
+        <is>
+          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>The exhaust gas section and oil burning section shall be completely separated from each 
+other.</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CM18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CN18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CO18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CP18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CQ18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CR18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CS18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CT18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CU18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CV18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CW18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CX18" t="inlineStr">
         <is>
-          <t>(+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (+)－ &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)- &amp; (-)-</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4.2.3  Fitting and accessory.</t>
+          <t>Smoke tube shall be inserted into the plate and both ends of the each tubes shall be 
+secured by welding after and before undergoing expanding.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -11169,362 +11170,362 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AZ19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BB19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BC19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BD19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BE19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BG19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BI19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BJ19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BK19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BM19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BN19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BO19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BP19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BQ19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BR19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BS19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BT19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BU19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BV19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BW19" t="inlineStr">
@@ -11534,7 +11535,7 @@
       </c>
       <c r="BX19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BY19" t="inlineStr">
@@ -11544,135 +11545,134 @@
       </c>
       <c r="BZ19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CA19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CB19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CC19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CD19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CE19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CF19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CG19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CH19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CI19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CJ19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CK19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CL19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CM19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CN19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CO19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CP19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CQ19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CR19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CS19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CT19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CU19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CV19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CW19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CX19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Smoke tube shall be inserted into the plate and both ends of the each tubes shall be 
-secured by welding after and before undergoing expanding.</t>
+          <t>Manhole shall be provided to afford entry into the inside of the boiler.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -12184,512 +12184,512 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Manhole shall be provided to afford entry into the inside of the boiler.</t>
+          <t>1  -  chemical injection unit1△</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4 &amp; (+)glass &amp; (+)gauge &amp; (+)isolation &amp; (+)valve &amp; (+). &amp; (-)1 &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="AZ21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BA21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BB21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BC21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BD21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BE21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BG21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BI21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BJ21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BK21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BL21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BM21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BN21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BO21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BP21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BQ21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BR21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BS21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BT21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BU21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BV21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BW21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BX21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BY21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="BZ21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CA21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CB21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CC21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CD21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CE21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CF21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CG21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CH21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CI21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CJ21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CK21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CL21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CM21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CN21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CO21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CP21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CQ21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CR21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CS21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CT21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CU21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CV21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CW21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
       <c r="CX21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(+)4.2.1 &amp; (+)Construction &amp; (+). &amp; (-)1 &amp; (-)- &amp; (-)chemical &amp; (-)injection &amp; (-)unit1△</t>
         </is>
       </c>
     </row>
@@ -15266,6 +15266,518 @@
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
+        <is>
+          <t>4.2.3  Fitting and accessory.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BD27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BE27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BF27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BG27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BI27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BJ27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BL27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BM27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BN27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BO27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BP27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BQ27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BS27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BT27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BU27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BW27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BX27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BY27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BZ27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CA27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CC27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CD27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CE27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CF27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CG27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CH27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CI27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CJ27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CK27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CL27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CM27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CN27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CO27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CP27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CQ27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CR27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CS27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CT27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CU27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CV27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CW27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CX27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1 － pressure gauge root valve 
  1 － air vent valve 
@@ -15278,519 +15790,6 @@
  Each 1 － main and aux.</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AS27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AT27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AU27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AV27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AW27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AX27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AZ27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BB27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BC27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BD27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BE27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BG27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BI27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BJ27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BK27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BL27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BM27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BN27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BO27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BP27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BQ27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BR27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BS27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BT27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BU27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BV27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BW27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BX27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BY27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BZ27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CA27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CB27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CC27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CD27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CE27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CF27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CG27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CH27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CI27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CJ27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CK27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CL27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CM27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CN27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CO27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CP27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CQ27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CR27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CS27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CT27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CU27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CV27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CW27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CX27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>feed water check valve 
- Each 1 － main and aux.</t>
-        </is>
-      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>1</t>
@@ -15798,362 +15797,362 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(+)- &amp; (-)water &amp; (-)－</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>(+)- &amp; (-)water &amp; (-)－</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>(+)- &amp; (-)water &amp; (-)－</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AZ28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BB28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BC28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BD28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BE28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BG28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BI28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BJ28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BK28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BL28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BM28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BN28" t="inlineStr">
         <is>
-          <t>(+)- &amp; (-)water &amp; (-)－</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BO28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BP28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BQ28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BR28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BS28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BT28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BU28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BV28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BW28" t="inlineStr">
@@ -16163,7 +16162,7 @@
       </c>
       <c r="BX28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BY28" t="inlineStr">
@@ -16173,132 +16172,645 @@
       </c>
       <c r="BZ28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CA28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CB28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CC28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CD28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CE28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CF28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CG28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CH28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CI28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CJ28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CK28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CL28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CM28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CN28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CO28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CP28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CQ28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CR28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CS28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CT28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CU28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CV28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CW28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CX28" t="inlineStr">
         <is>
-          <t>(-)water</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
+        <is>
+          <t>feed water check valve 
+ Each 1 － main and aux.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>(+)- &amp; (-)water &amp; (-)－</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>(+)- &amp; (-)water &amp; (-)－</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>(+)- &amp; (-)water &amp; (-)－</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AU29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="AZ29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BA29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BD29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BE29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BF29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BG29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BI29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BJ29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BK29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BL29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BM29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BN29" t="inlineStr">
+        <is>
+          <t>(+)- &amp; (-)water &amp; (-)－</t>
+        </is>
+      </c>
+      <c r="BO29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BP29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BQ29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BS29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BT29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BU29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BV29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BW29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BX29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="BY29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BZ29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CA29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CB29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CC29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CD29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CE29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CF29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CG29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CH29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CI29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CJ29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CK29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CL29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CM29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CN29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CO29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CP29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CQ29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CR29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CS29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CT29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CU29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CV29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CW29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+      <c r="CX29" t="inlineStr">
+        <is>
+          <t>(-)water</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>feed water stop valve 
  1 － surface blow-off valve ( double ) 
@@ -16308,514 +16820,514 @@
  3 － sets of soot blower</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AS29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AT29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AU29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AV29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AW29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AX29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AZ29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BB29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BC29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BD29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BE29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BG29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BI29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BJ29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BK29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BL29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BM29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BN29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BO29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BP29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BQ29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BR29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BS29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BT29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BU29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BV29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BW29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BX29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BY29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BZ29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CA29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CB29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CC29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CD29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CE29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CF29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CG29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CH29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CI29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CJ29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CK29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CL29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CM29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CN29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CO29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CP29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CQ29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CR29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CS29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CT29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CU29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CV29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CW29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CX29" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BE30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BK30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BS30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BV30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BX30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BZ30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CA30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CB30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CC30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CF30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CG30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CH30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CI30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CJ30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CK30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CL30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CM30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CN30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CO30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CP30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CQ30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CR30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CS30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CT30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CU30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CV30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CW30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CX30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>feed stop valve 
  1 － surface blow-off valve 
@@ -16826,507 +17338,507 @@
  2 － glass gauge drain valve</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AS30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AT30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AU30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AV30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AW30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AX30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AZ30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BB30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BC30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BD30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BE30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BG30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BI30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BJ30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BK30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BL30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BM30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BN30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BO30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BP30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BQ30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BR30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BS30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BT30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BU30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BV30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BW30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BX30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BY30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BZ30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CA30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CB30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CC30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CD30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CE30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CF30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CG30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CH30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CI30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CJ30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CK30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CL30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CM30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CN30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CO30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CP30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CQ30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CR30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CS30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CT30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CU30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CV30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CW30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CX30" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BE31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BK31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BS31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BV31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BZ31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CA31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CB31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CC31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CF31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CG31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CH31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CI31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CJ31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CK31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CL31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CM31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CN31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CO31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CP31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CQ31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CR31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CS31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CT31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CU31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CV31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CW31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CX31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
